--- a/data/trans_camb/P54_A_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_4_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,02</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,63; -11,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,86; -9,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,73; -15,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,29; -15,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,05; -14,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,82; -13,2</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,29%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,24; -74,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,54; -58,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,48; -84,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,34; -80,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,15; -82,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,19; -73,93</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,22</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,55; -8,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,92; -11,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,44; -13,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,65; -11,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,91; -12,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,87; -12,63</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,53%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,48; -54,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,47; -83,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,4; -78,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,35; -64,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,85; -71,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,68; -75,98</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,4</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,07; 6,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,19; -7,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,0; -14,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,65; -13,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,57; -6,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,11; -11,79</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,61%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,52; 112,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,69; -53,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,01; -77,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,12; -67,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,91; -26,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,32; -70,63</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,85</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,45; -10,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,0; -11,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,44; -16,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,92; -15,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,19; -14,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,64; -14,13</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,52%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,38; -63,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,14; -73,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,21; -85,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,68; -77,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,92; -77,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,14; -77,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_4_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-15,39</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-13,34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-19,27</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-18,59</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-17,35</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-16,02</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-15.0723382289399</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-13.09952616958294</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-19.26916244136424</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-18.5747252349616</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-17.19713790916457</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-15.90622247762731</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-19,63; -11,86</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,86; -9,52</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-22,73; -15,86</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-22,29; -15,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-20,05; -14,81</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-18,82; -13,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.68029890628648</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.58711569823609</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-22.84790430360435</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-22.29239718408769</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-19.98362622664336</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-18.73127154161773</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-84,88%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-73,58%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-90,5%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-87,3%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-88,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-81,29%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-11.56339219111715</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-9.201814525466006</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-16.02691390352749</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-15.32677331661616</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-14.64261008084656</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-13.04226219672006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-91,24; -74,49</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-83,54; -58,31</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-94,48; -84,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-92,34; -80,49</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-92,15; -82,83</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-87,19; -73,93</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.8315154204455353</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.7226787141509206</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.9051456355295491</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.8725252863868503</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.8723569909767631</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.8068728908079102</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-12,6</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-15,09</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-17,82</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-15,5</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-15,14</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-15,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.8992880857280018</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.8265668462188491</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.9436550702262706</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.9224962754439155</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9149762721521957</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8675586217650728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,55; -8,28</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,92; -11,89</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-21,44; -13,99</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,65; -11,29</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-17,91; -12,37</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-17,87; -12,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.692576378386986</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.5584210730956317</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.8385629776519529</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.804841731928544</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.807058919952589</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.7269060522287447</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-76,66%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-91,75%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-88,47%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-76,97%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-83,1%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-83,53%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-12.69864399377965</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-15.1143032286478</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-17.63484036084586</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-15.55263756308864</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-15.09581169903281</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-15.26232522611303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-87,48; -54,61</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-96,47; -83,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-94,4; -78,77</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-85,35; -64,43</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-88,85; -71,29</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-88,68; -75,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.08251592784161</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.95828440025854</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-21.25804462314189</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-19.63348544398092</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-18.10862325722772</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-17.87313625134262</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-10,95</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-14,68</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-21,43</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-20,24</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-16,07</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-17,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-8.824686840953248</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-11.95319375471873</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-13.90161878517049</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-11.45293484923105</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-12.32207055050187</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-12.64942945712751</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-22,07; 6,2</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-27,19; -7,52</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-29,0; -14,9</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-27,65; -13,28</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-22,57; -6,22</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-24,11; -11,79</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.7723829198142829</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.9193130907851166</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.8756578543477624</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.7722660914005224</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.828399819458383</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.837537438456338</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-60,48%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-81,08%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-92,65%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-87,49%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-78,15%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-84,61%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.8766447185630277</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.9663899284670732</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.9376107085797341</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.8565897548377229</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.8925420583287342</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.8894028703179355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-96,52; 112,63</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-94,69; -53,96</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-98,01; -77,15</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-96,12; -67,34</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-94,91; -26,61</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-92,32; -70,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-0.5647813416202682</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.8358869497485044</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.7774798724248584</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.6494157687855039</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.7186584926084671</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.7662054494782917</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,317 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-13,71</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-14,19</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-18,94</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-17,57</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-16,31</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-15,85</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-11.37717398340797</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-14.64583920680642</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-21.45501688432162</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-20.29734793942846</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-16.28227648328004</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-17.41072170860592</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-16,45; -10,76</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-17,0; -11,73</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-21,44; -16,8</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-19,92; -15,25</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-18,19; -14,36</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-17,64; -14,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-22.33793491953289</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-27.2764130980738</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-29.44796174967817</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-27.80173424235121</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-22.4529543541992</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-24.12042474754408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-78,65%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-81,4%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-90,01%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-83,51%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-84,93%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-82,52%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.719875867760356</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-7.504690883018962</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-15.21111919791857</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-13.34603055028487</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-7.379316077548031</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-11.82411993102315</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-86,38; -63,1</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-87,14; -73,11</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-93,21; -85,63</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-87,68; -77,98</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-88,92; -77,85</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-86,14; -77,81</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.6285306460582574</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.8091076740273235</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.9275823599399344</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.8775319079769774</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.791849845794166</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.8467290992314256</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.9662420197419421</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.9470927533464297</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.9808862476300088</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.9620827140657066</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.9543800617588534</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.9243164586333537</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.9450242067598896</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>-0.5317169600727631</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.7704963505020045</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-0.676141189707049</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>-0.3012924613694389</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>-0.7087204837533178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-13.65534990799681</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-14.08225130654971</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-18.87559723364767</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-17.59449424118454</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-16.24844046029597</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-15.8093910383261</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-16.46776642019896</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-16.92327627707898</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-21.26465344706089</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-19.94844973252919</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-17.98438744492506</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-17.58343208187721</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-10.71208274259621</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-11.61620495663777</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-16.48194831028579</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-15.29396003907269</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-14.32278544912882</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-14.05640074578298</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.7835886604418484</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.8080856595877234</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.8969802533623561</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.8361014333420594</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.8459464288516744</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.8230880941387294</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.8619794733508543</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.867428396041255</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.9288272581530531</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.8776095039845235</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.8848476946874576</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.8610625206381562</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.6378840116002701</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.7232989650716152</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.8469531949148416</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.7824408094158888</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.7807865966816723</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.7760116167644554</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1221,14 +1246,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
